--- a/Data/NetworkPsition.xlsx
+++ b/Data/NetworkPsition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujita/Downloads/Fujita/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujita/Dropbox/Python/FourFeatureHumanOGTT/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC7222CA-7067-CA42-8209-829209DF2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAF56E5-B893-5A42-BDEE-11584FB18523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="D12" sqref="A4:D12"/>
+    <sheetView tabSelected="1" topLeftCell="DF1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="BU5" sqref="BU5:BY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2006,12 +2006,6 @@
         <v>0.5</v>
       </c>
       <c r="AE5" s="3"/>
-      <c r="BV5">
-        <v>1</v>
-      </c>
-      <c r="BX5">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="6" spans="1:115">
       <c r="AM6" s="3"/>
